--- a/LSTMClassificationAAPL_data_with_prediction.xlsx
+++ b/LSTMClassificationAAPL_data_with_prediction.xlsx
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0.01669840988616733</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>-0</v>
+        <v>-0.002178269582643555</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -898,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>-0</v>
+        <v>-0.006505413901501833</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01647989452867504</v>
       </c>
     </row>
     <row r="7" spans="1:30">
